--- a/Notes/endpoints.xlsx
+++ b/Notes/endpoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work And School\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recep\source\repos\TheHoldemHackathon2021\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999245CA-1615-4423-B769-0FDB1962F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959191C-E02D-49ED-9354-3FCFDF249436}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REST API END POINTS" sheetId="1" r:id="rId1"/>
@@ -281,16 +281,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,16 +612,16 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -724,24 +724,24 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -844,24 +844,24 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,16 +995,16 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61BE26-E74E-41C7-94BA-7020D87C0F83}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1149,16 +1149,16 @@
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
